--- a/Code/Results/Cases/Case_9_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.412855166621227</v>
+        <v>2.225776176207205</v>
       </c>
       <c r="C2">
-        <v>0.6481825820970073</v>
+        <v>0.7194328272599364</v>
       </c>
       <c r="D2">
-        <v>0.02202694197658417</v>
+        <v>0.02537031374654575</v>
       </c>
       <c r="E2">
-        <v>0.2566648517173746</v>
+        <v>0.2570172085206721</v>
       </c>
       <c r="F2">
-        <v>1.047247537448229</v>
+        <v>0.92912697365594</v>
       </c>
       <c r="G2">
-        <v>0.997014035686135</v>
+        <v>0.8402272759130653</v>
       </c>
       <c r="H2">
-        <v>0.001977153651379959</v>
+        <v>0.001808243365163831</v>
       </c>
       <c r="I2">
-        <v>0.004122276340973396</v>
+        <v>0.003933473035623081</v>
       </c>
       <c r="J2">
-        <v>0.6107868943159929</v>
+        <v>0.5925980206884418</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2253771426037616</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1185465027996031</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9553572184727486</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7233707424893741</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9455471053388464</v>
+      </c>
+      <c r="R2">
+        <v>0.7075716366030367</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.096584203865632</v>
+        <v>1.943631317914196</v>
       </c>
       <c r="C3">
-        <v>0.568362723359968</v>
+        <v>0.6254037491703457</v>
       </c>
       <c r="D3">
-        <v>0.02117817632505492</v>
+        <v>0.02367037841978004</v>
       </c>
       <c r="E3">
-        <v>0.2263880870990747</v>
+        <v>0.2274502455149801</v>
       </c>
       <c r="F3">
-        <v>0.9444931809948827</v>
+        <v>0.8450076406314366</v>
       </c>
       <c r="G3">
-        <v>0.8962209757009987</v>
+        <v>0.7607808539496261</v>
       </c>
       <c r="H3">
-        <v>0.0008131869345180398</v>
+        <v>0.0007584363620802836</v>
       </c>
       <c r="I3">
-        <v>0.002240211288590643</v>
+        <v>0.002349133333696685</v>
       </c>
       <c r="J3">
-        <v>0.5678970420602525</v>
+        <v>0.5568170897036424</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2254476016656</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1049067197348279</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8313499209353807</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7540449869289421</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8236631346137173</v>
+      </c>
+      <c r="R3">
+        <v>0.7350222861544413</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.902056813034562</v>
+        <v>1.769510941257721</v>
       </c>
       <c r="C4">
-        <v>0.5197420871087388</v>
+        <v>0.5682180628986373</v>
       </c>
       <c r="D4">
-        <v>0.02064587039896892</v>
+        <v>0.02262738738463099</v>
       </c>
       <c r="E4">
-        <v>0.2078540813564373</v>
+        <v>0.2093256760672162</v>
       </c>
       <c r="F4">
-        <v>0.8821175291415386</v>
+        <v>0.7937387347599696</v>
       </c>
       <c r="G4">
-        <v>0.834943971524396</v>
+        <v>0.7124567493135459</v>
       </c>
       <c r="H4">
-        <v>0.0003384379319963937</v>
+        <v>0.0003248337033137094</v>
       </c>
       <c r="I4">
-        <v>0.001406647220901114</v>
+        <v>0.001618423684514703</v>
       </c>
       <c r="J4">
-        <v>0.5419550859008382</v>
+        <v>0.5348220428373054</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2253350247911108</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09725440833557641</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7553253032640583</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7733528702742811</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7488695479430518</v>
+      </c>
+      <c r="R4">
+        <v>0.7524272360687174</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.821031038015008</v>
+        <v>1.69681054759414</v>
       </c>
       <c r="C5">
-        <v>0.500699536347156</v>
+        <v>0.5457430894696245</v>
       </c>
       <c r="D5">
-        <v>0.0204481449223497</v>
+        <v>0.02223193720828576</v>
       </c>
       <c r="E5">
-        <v>0.2003185778120589</v>
+        <v>0.2019522246791681</v>
       </c>
       <c r="F5">
-        <v>0.8557979542028988</v>
+        <v>0.7719733839469853</v>
       </c>
       <c r="G5">
-        <v>0.8088944621109988</v>
+        <v>0.6917917278936159</v>
       </c>
       <c r="H5">
-        <v>0.0002008411218135109</v>
+        <v>0.0001973687286860315</v>
       </c>
       <c r="I5">
-        <v>0.001200980186890632</v>
+        <v>0.001449007529613411</v>
       </c>
       <c r="J5">
-        <v>0.5308591943609713</v>
+        <v>0.5252864740693752</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2249336641915569</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09410374524826182</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7242779816039331</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7811338333823323</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7183125678909335</v>
+      </c>
+      <c r="R5">
+        <v>0.7595897444017483</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.805551905278151</v>
+        <v>1.682874855076278</v>
       </c>
       <c r="C6">
-        <v>0.4983836148673504</v>
+        <v>0.5428817302038738</v>
       </c>
       <c r="D6">
-        <v>0.02044229025888455</v>
+        <v>0.02220261027437331</v>
       </c>
       <c r="E6">
-        <v>0.199078274914072</v>
+        <v>0.2007395031458543</v>
       </c>
       <c r="F6">
-        <v>0.8501405341059183</v>
+        <v>0.7671985340223415</v>
       </c>
       <c r="G6">
-        <v>0.8030956666377023</v>
+        <v>0.6870594603818319</v>
       </c>
       <c r="H6">
-        <v>0.0001807519454080087</v>
+        <v>0.0001786312932035017</v>
       </c>
       <c r="I6">
-        <v>0.001250508354698532</v>
+        <v>0.001520695051458354</v>
       </c>
       <c r="J6">
-        <v>0.5282718382396467</v>
+        <v>0.5230152040871587</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2244795769053667</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09333384213043772</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.719019838640456</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7821895745667748</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7131409411067509</v>
+      </c>
+      <c r="R6">
+        <v>0.760712541195165</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.895429749501403</v>
+        <v>1.761403401963861</v>
       </c>
       <c r="C7">
-        <v>0.5217891120897775</v>
+        <v>0.5692161036433561</v>
       </c>
       <c r="D7">
-        <v>0.0207177310006319</v>
+        <v>0.02278981881470443</v>
       </c>
       <c r="E7">
-        <v>0.2077813713527945</v>
+        <v>0.2093846567372921</v>
       </c>
       <c r="F7">
-        <v>0.878214540335307</v>
+        <v>0.7882109016829588</v>
       </c>
       <c r="G7">
-        <v>0.8305386199150888</v>
+        <v>0.7124683901667055</v>
       </c>
       <c r="H7">
-        <v>0.0003343023187758476</v>
+        <v>0.0003198200478788937</v>
       </c>
       <c r="I7">
-        <v>0.001603294914971798</v>
+        <v>0.001856297413718622</v>
       </c>
       <c r="J7">
-        <v>0.5397537028247967</v>
+        <v>0.5251373194186186</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2238566889615328</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09618062456666721</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7546220572856726</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7728079802074195</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7476878502158684</v>
+      </c>
+      <c r="R7">
+        <v>0.752283616527107</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.296441033725785</v>
+        <v>2.114992297846584</v>
       </c>
       <c r="C8">
-        <v>0.6236519963750311</v>
+        <v>0.6864727639980401</v>
       </c>
       <c r="D8">
-        <v>0.02183759878715819</v>
+        <v>0.02515583375915043</v>
       </c>
       <c r="E8">
-        <v>0.2462486886395538</v>
+        <v>0.2472857213905471</v>
       </c>
       <c r="F8">
-        <v>1.006932402444903</v>
+        <v>0.8889987170021243</v>
       </c>
       <c r="G8">
-        <v>0.9567213087483282</v>
+        <v>0.8209367459068631</v>
       </c>
       <c r="H8">
-        <v>0.001518006871416233</v>
+        <v>0.001387221698794683</v>
       </c>
       <c r="I8">
-        <v>0.003631113527994501</v>
+        <v>0.003599733892387214</v>
       </c>
       <c r="J8">
-        <v>0.5931856031868676</v>
+        <v>0.5524705344846979</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2227925006524387</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1115511515445711</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9121838368413435</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7330576506519644</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9014570974812557</v>
+      </c>
+      <c r="R8">
+        <v>0.7167347764205978</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.091284299628626</v>
+        <v>2.818620348652473</v>
       </c>
       <c r="C9">
-        <v>0.8229629978725086</v>
+        <v>0.9209716238564454</v>
       </c>
       <c r="D9">
-        <v>0.02380810446440407</v>
+        <v>0.02937066754250139</v>
       </c>
       <c r="E9">
-        <v>0.3223376258930699</v>
+        <v>0.3215352958211852</v>
       </c>
       <c r="F9">
-        <v>1.272465669176356</v>
+        <v>1.103555939995687</v>
       </c>
       <c r="G9">
-        <v>1.217359555572472</v>
+        <v>1.030504122865679</v>
       </c>
       <c r="H9">
-        <v>0.005942628834174624</v>
+        <v>0.005326662138600335</v>
       </c>
       <c r="I9">
-        <v>0.01015971003073979</v>
+        <v>0.008792220414834517</v>
       </c>
       <c r="J9">
-        <v>0.7052446238714083</v>
+        <v>0.6368240447658877</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2227907651186669</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1501443812947336</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.22316616286902</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6601389359650494</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.206109616942697</v>
+      </c>
+      <c r="R9">
+        <v>0.651934869269418</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.665850635370816</v>
+        <v>3.313611062537461</v>
       </c>
       <c r="C10">
-        <v>0.9710848877365379</v>
+        <v>1.087777909816111</v>
       </c>
       <c r="D10">
-        <v>0.02567916396001024</v>
+        <v>0.03358205547395698</v>
       </c>
       <c r="E10">
-        <v>0.3538359918800964</v>
+        <v>0.3520501184914835</v>
       </c>
       <c r="F10">
-        <v>1.453657082555324</v>
+        <v>1.236387608657367</v>
       </c>
       <c r="G10">
-        <v>1.391639880195015</v>
+        <v>1.193429700813226</v>
       </c>
       <c r="H10">
-        <v>0.01049779694751818</v>
+        <v>0.00932406390923024</v>
       </c>
       <c r="I10">
-        <v>0.01702463340003124</v>
+        <v>0.01411581944132756</v>
       </c>
       <c r="J10">
-        <v>0.7793427159909356</v>
+        <v>0.6467448430170748</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2169831146425523</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1766281413512445</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.411140674708506</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6073351720748232</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.386398598846071</v>
+      </c>
+      <c r="R10">
+        <v>0.6092011396001631</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.855036567783714</v>
+        <v>3.473322483733341</v>
       </c>
       <c r="C11">
-        <v>1.019419878128474</v>
+        <v>1.120967585222928</v>
       </c>
       <c r="D11">
-        <v>0.0313023641337864</v>
+        <v>0.04264216725263736</v>
       </c>
       <c r="E11">
-        <v>0.1922635649262361</v>
+        <v>0.1889615802493303</v>
       </c>
       <c r="F11">
-        <v>1.379327793903258</v>
+        <v>1.14795262412143</v>
       </c>
       <c r="G11">
-        <v>1.292520535312207</v>
+        <v>1.158343456708565</v>
       </c>
       <c r="H11">
-        <v>0.0280661302104015</v>
+        <v>0.02682601541494023</v>
       </c>
       <c r="I11">
-        <v>0.01960112015578552</v>
+        <v>0.01617194242714159</v>
       </c>
       <c r="J11">
-        <v>0.7241088530676905</v>
+        <v>0.5169546745781446</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1880733810956841</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1583258915551511</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.150092707223237</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5794839521827342</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.122463171839129</v>
+      </c>
+      <c r="R11">
+        <v>0.6154285743952776</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.901615794168094</v>
+        <v>3.519217231225923</v>
       </c>
       <c r="C12">
-        <v>1.024918668247238</v>
+        <v>1.113512225045753</v>
       </c>
       <c r="D12">
-        <v>0.03657085563618878</v>
+        <v>0.05000776737266932</v>
       </c>
       <c r="E12">
-        <v>0.1072565924921474</v>
+        <v>0.1018341001780101</v>
       </c>
       <c r="F12">
-        <v>1.285342183107673</v>
+        <v>1.05963450976391</v>
       </c>
       <c r="G12">
-        <v>1.181608140313472</v>
+        <v>1.08609325439906</v>
       </c>
       <c r="H12">
-        <v>0.06559439236218623</v>
+        <v>0.06441264281861692</v>
       </c>
       <c r="I12">
-        <v>0.01997522974578558</v>
+        <v>0.01641158751260541</v>
       </c>
       <c r="J12">
-        <v>0.6662917330625646</v>
+        <v>0.4405897067844506</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1688055324853615</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1405880028042574</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.916071517332874</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.581225558440412</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8899745845177804</v>
+      </c>
+      <c r="R12">
+        <v>0.6422566988724441</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.831699549498694</v>
+        <v>3.477573375276506</v>
       </c>
       <c r="C13">
-        <v>1.001386050564832</v>
+        <v>1.080986118479103</v>
       </c>
       <c r="D13">
-        <v>0.04190483656864075</v>
+        <v>0.0559666270499406</v>
       </c>
       <c r="E13">
-        <v>0.07539463132540436</v>
+        <v>0.06794003281187733</v>
       </c>
       <c r="F13">
-        <v>1.165305231007267</v>
+        <v>0.9650609787156128</v>
       </c>
       <c r="G13">
-        <v>1.049047758207479</v>
+        <v>0.9673435110125297</v>
       </c>
       <c r="H13">
-        <v>0.1199826230733692</v>
+        <v>0.1189594042051567</v>
       </c>
       <c r="I13">
-        <v>0.01888072213782177</v>
+        <v>0.0156063131415749</v>
       </c>
       <c r="J13">
-        <v>0.5999695237747744</v>
+        <v>0.4042141007477511</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1542399731445592</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1218170019632083</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6905182744730141</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6036192145529213</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6695517711944063</v>
+      </c>
+      <c r="R13">
+        <v>0.6810195622522954</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.728649416286828</v>
+        <v>3.407108748037672</v>
       </c>
       <c r="C14">
-        <v>0.9726822410090961</v>
+        <v>1.047620714430536</v>
       </c>
       <c r="D14">
-        <v>0.04579432938647443</v>
+        <v>0.05949788881559215</v>
       </c>
       <c r="E14">
-        <v>0.08443918910196402</v>
+        <v>0.07603829888780389</v>
       </c>
       <c r="F14">
-        <v>1.069618320406661</v>
+        <v>0.895028221651657</v>
       </c>
       <c r="G14">
-        <v>0.9467971594205267</v>
+        <v>0.8653584231076081</v>
       </c>
       <c r="H14">
-        <v>0.1683525364118452</v>
+        <v>0.1674704840262393</v>
       </c>
       <c r="I14">
-        <v>0.0175700222174342</v>
+        <v>0.01468533506562864</v>
       </c>
       <c r="J14">
-        <v>0.5497845711030749</v>
+        <v>0.3931420103620695</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1456846036735833</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.10818168515274</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5414026236420426</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6299819945648437</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5250174049692475</v>
+      </c>
+      <c r="R14">
+        <v>0.7134373682176331</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.676620126847183</v>
+        <v>3.368784209114267</v>
       </c>
       <c r="C15">
-        <v>0.9605077651191891</v>
+        <v>1.034929831494253</v>
       </c>
       <c r="D15">
-        <v>0.04667844034079849</v>
+        <v>0.0599748519607175</v>
       </c>
       <c r="E15">
-        <v>0.09033200287055543</v>
+        <v>0.08193709822606898</v>
       </c>
       <c r="F15">
-        <v>1.039568038016185</v>
+        <v>0.8748292908853728</v>
       </c>
       <c r="G15">
-        <v>0.9157747836425187</v>
+        <v>0.83090961717879</v>
       </c>
       <c r="H15">
-        <v>0.1804992016559623</v>
+        <v>0.1796741823978323</v>
       </c>
       <c r="I15">
-        <v>0.01703254811876942</v>
+        <v>0.01435071244861064</v>
       </c>
       <c r="J15">
-        <v>0.5350231759299646</v>
+        <v>0.3959128992565866</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1440140373059364</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1042494745736811</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5039536672773721</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6392898753455682</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4891352494525094</v>
+      </c>
+      <c r="R15">
+        <v>0.7222650425332517</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.440870558969493</v>
+        <v>3.181378006048192</v>
       </c>
       <c r="C16">
-        <v>0.9031762834475785</v>
+        <v>0.9816684527465895</v>
       </c>
       <c r="D16">
-        <v>0.04464212178513804</v>
+        <v>0.05532290503377624</v>
       </c>
       <c r="E16">
-        <v>0.08455750489541813</v>
+        <v>0.07784911671200767</v>
       </c>
       <c r="F16">
-        <v>0.9858082812959879</v>
+        <v>0.851591306326327</v>
       </c>
       <c r="G16">
-        <v>0.8678440625619004</v>
+        <v>0.7544741139943199</v>
       </c>
       <c r="H16">
-        <v>0.1662665080241226</v>
+        <v>0.1656678108321046</v>
       </c>
       <c r="I16">
-        <v>0.01426024813608695</v>
+        <v>0.012365074744908</v>
       </c>
       <c r="J16">
-        <v>0.5163886436186118</v>
+        <v>0.4469082327427571</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1495631674976998</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09992547218512371</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4770037752163958</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6539581609476528</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4664966552082959</v>
+      </c>
+      <c r="R16">
+        <v>0.7208720752258415</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.314815693666787</v>
+        <v>3.071494716423842</v>
       </c>
       <c r="C17">
-        <v>0.8746070454040762</v>
+        <v>0.9569636430929904</v>
       </c>
       <c r="D17">
-        <v>0.04096906979550141</v>
+        <v>0.05024826943474636</v>
       </c>
       <c r="E17">
-        <v>0.07012855231043336</v>
+        <v>0.06464213617476222</v>
       </c>
       <c r="F17">
-        <v>0.9948969049270318</v>
+        <v>0.8685684208175104</v>
       </c>
       <c r="G17">
-        <v>0.8846003014715507</v>
+        <v>0.7534754995187285</v>
       </c>
       <c r="H17">
-        <v>0.1278325291695523</v>
+        <v>0.1273266609918693</v>
       </c>
       <c r="I17">
-        <v>0.01288913325776253</v>
+        <v>0.0113630019738622</v>
       </c>
       <c r="J17">
-        <v>0.5284435404527841</v>
+        <v>0.4866278474626711</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1584491990653056</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1032404387020414</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5318047499022569</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6507705330604736</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5222794617648674</v>
+      </c>
+      <c r="R17">
+        <v>0.705185261691156</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.272931849767815</v>
+        <v>3.025012586806156</v>
       </c>
       <c r="C18">
-        <v>0.8653701598258294</v>
+        <v>0.9543138539480651</v>
       </c>
       <c r="D18">
-        <v>0.03579939022682765</v>
+        <v>0.04414257205531413</v>
       </c>
       <c r="E18">
-        <v>0.07428362323201565</v>
+        <v>0.06983835385618509</v>
       </c>
       <c r="F18">
-        <v>1.062687990223125</v>
+        <v>0.9294443773926417</v>
       </c>
       <c r="G18">
-        <v>0.9637081322281205</v>
+        <v>0.812646597081141</v>
       </c>
       <c r="H18">
-        <v>0.07515407969296461</v>
+        <v>0.07464889505342143</v>
       </c>
       <c r="I18">
-        <v>0.01224933274802353</v>
+        <v>0.01078089939622195</v>
       </c>
       <c r="J18">
-        <v>0.5705276559969121</v>
+        <v>0.5348337935244416</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1729648099052064</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1149810544165177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6766004608483343</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6374383041163192</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6660571442424583</v>
+      </c>
+      <c r="R18">
+        <v>0.6781126179757848</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.290877964614367</v>
+        <v>3.025095754757103</v>
       </c>
       <c r="C19">
-        <v>0.8770333839375155</v>
+        <v>0.9754247895133688</v>
       </c>
       <c r="D19">
-        <v>0.03076210679596159</v>
+        <v>0.03837712037501362</v>
       </c>
       <c r="E19">
-        <v>0.1346227833409124</v>
+        <v>0.1311821945168141</v>
       </c>
       <c r="F19">
-        <v>1.169397435606811</v>
+        <v>1.019499378126881</v>
       </c>
       <c r="G19">
-        <v>1.084596602186124</v>
+        <v>0.9102012600263834</v>
       </c>
       <c r="H19">
-        <v>0.03102406629498944</v>
+        <v>0.03042999807579605</v>
       </c>
       <c r="I19">
-        <v>0.01271185076336856</v>
+        <v>0.0111752963001166</v>
       </c>
       <c r="J19">
-        <v>0.6321013794885175</v>
+        <v>0.5897736109498055</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1905782488542727</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1322979920488834</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9043739334720442</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6270663871066429</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.891312736769585</v>
+      </c>
+      <c r="R19">
+        <v>0.6522152221245499</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.496618552309883</v>
+        <v>3.175116988453681</v>
       </c>
       <c r="C20">
-        <v>0.9392711127402436</v>
+        <v>1.05525330267173</v>
       </c>
       <c r="D20">
-        <v>0.02546919646248469</v>
+        <v>0.03257762494351368</v>
       </c>
       <c r="E20">
-        <v>0.3445065890400798</v>
+        <v>0.3425449772944376</v>
       </c>
       <c r="F20">
-        <v>1.393679352960874</v>
+        <v>1.198179909214787</v>
       </c>
       <c r="G20">
-        <v>1.331812530077201</v>
+        <v>1.124079465702494</v>
       </c>
       <c r="H20">
-        <v>0.009133042812201619</v>
+        <v>0.00814720334754071</v>
       </c>
       <c r="I20">
-        <v>0.01562496975798666</v>
+        <v>0.01339347651371892</v>
       </c>
       <c r="J20">
-        <v>0.7528022226232451</v>
+        <v>0.6648077634746272</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2171103959225995</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1679519319610705</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.359014298816277</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6195214397656292</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.338285628233592</v>
+      </c>
+      <c r="R20">
+        <v>0.6203226560187911</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.953001362697933</v>
+        <v>3.523012423032071</v>
       </c>
       <c r="C21">
-        <v>1.05692166275</v>
+        <v>1.168116703090277</v>
       </c>
       <c r="D21">
-        <v>0.02615790551574548</v>
+        <v>0.03642364521579111</v>
       </c>
       <c r="E21">
-        <v>0.408082865413796</v>
+        <v>0.4082013972315011</v>
       </c>
       <c r="F21">
-        <v>1.564760776674603</v>
+        <v>1.287041002587713</v>
       </c>
       <c r="G21">
-        <v>1.501682396081605</v>
+        <v>1.357135586176014</v>
       </c>
       <c r="H21">
-        <v>0.0136017636677197</v>
+        <v>0.01193776367555516</v>
       </c>
       <c r="I21">
-        <v>0.0217943090418018</v>
+        <v>0.01782399998774231</v>
       </c>
       <c r="J21">
-        <v>0.8277659931223411</v>
+        <v>0.5540797564816131</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2110471503985138</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1872044845300209</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.569245236429794</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5831219007281034</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.531352440007467</v>
+      </c>
+      <c r="R21">
+        <v>0.5891693644926477</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.255872218127877</v>
+        <v>3.750812804637349</v>
       </c>
       <c r="C22">
-        <v>1.13023593283242</v>
+        <v>1.235600731829265</v>
       </c>
       <c r="D22">
-        <v>0.0267159962786323</v>
+        <v>0.03931304059023333</v>
       </c>
       <c r="E22">
-        <v>0.4370160525772278</v>
+        <v>0.4386881231320672</v>
       </c>
       <c r="F22">
-        <v>1.67384945688913</v>
+        <v>1.339145573138779</v>
       </c>
       <c r="G22">
-        <v>1.609278769558671</v>
+        <v>1.517280981097656</v>
       </c>
       <c r="H22">
-        <v>0.01678229656745878</v>
+        <v>0.01461010849319722</v>
       </c>
       <c r="I22">
-        <v>0.02606238745888323</v>
+        <v>0.02070228972402699</v>
       </c>
       <c r="J22">
-        <v>0.8751118420380237</v>
+        <v>0.479623542633334</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2063342422775278</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1992879483418406</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.686279144505463</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5596298490259972</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.636191430086313</v>
+      </c>
+      <c r="R22">
+        <v>0.5707172634954034</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.101011511502008</v>
+        <v>3.641152634712796</v>
       </c>
       <c r="C23">
-        <v>1.088183501811585</v>
+        <v>1.199602809283874</v>
       </c>
       <c r="D23">
-        <v>0.02632115249908296</v>
+        <v>0.03737635438514531</v>
       </c>
       <c r="E23">
-        <v>0.4215138961069655</v>
+        <v>0.4219562061893072</v>
       </c>
       <c r="F23">
-        <v>1.619756909501589</v>
+        <v>1.320408590901536</v>
       </c>
       <c r="G23">
-        <v>1.556604126617998</v>
+        <v>1.424431031232729</v>
       </c>
       <c r="H23">
-        <v>0.0150620091032504</v>
+        <v>0.01318106600188867</v>
       </c>
       <c r="I23">
-        <v>0.02352287081143878</v>
+        <v>0.01887926993917333</v>
       </c>
       <c r="J23">
-        <v>0.8522222447053593</v>
+        <v>0.5368258501077605</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2105849323397671</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1949034327180144</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.624123872991959</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5726172795306117</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.581978179724103</v>
+      </c>
+      <c r="R23">
+        <v>0.5797076353649224</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.505288113605502</v>
+        <v>3.181570197160795</v>
       </c>
       <c r="C24">
-        <v>0.9351822180438489</v>
+        <v>1.052012252596995</v>
       </c>
       <c r="D24">
-        <v>0.02495845104069971</v>
+        <v>0.03186028549944098</v>
       </c>
       <c r="E24">
-        <v>0.3634247173379777</v>
+        <v>0.3615723385475746</v>
       </c>
       <c r="F24">
-        <v>1.411444713190647</v>
+        <v>1.213649854317211</v>
       </c>
       <c r="G24">
-        <v>1.352525450827102</v>
+        <v>1.140744259543652</v>
       </c>
       <c r="H24">
-        <v>0.009288096633170595</v>
+        <v>0.008283017039779045</v>
       </c>
       <c r="I24">
-        <v>0.01528481121543113</v>
+        <v>0.01293325998274852</v>
       </c>
       <c r="J24">
-        <v>0.7633085770025332</v>
+        <v>0.6750580400273662</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2207884903853738</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1715445074627979</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389379288099306</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6223090461771257</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.368353588808517</v>
+      </c>
+      <c r="R24">
+        <v>0.619704116407144</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.865973533017552</v>
+        <v>2.622533935249749</v>
       </c>
       <c r="C25">
-        <v>0.7728162968903405</v>
+        <v>0.8628858158516266</v>
       </c>
       <c r="D25">
-        <v>0.02342778607699003</v>
+        <v>0.02832484950808123</v>
       </c>
       <c r="E25">
-        <v>0.3016908447076361</v>
+        <v>0.3012422756865689</v>
       </c>
       <c r="F25">
-        <v>1.193259339431549</v>
+        <v>1.042190929696844</v>
       </c>
       <c r="G25">
-        <v>1.138637626331644</v>
+        <v>0.9610820049443873</v>
       </c>
       <c r="H25">
-        <v>0.004480859641921353</v>
+        <v>0.004036265078433798</v>
       </c>
       <c r="I25">
-        <v>0.008366597425203182</v>
+        <v>0.007556551193486527</v>
       </c>
       <c r="J25">
-        <v>0.6707358202465343</v>
+        <v>0.6215069278102874</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2218724401026115</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1380399131453807</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.138254307300585</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6784598718142503</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.123770736126602</v>
+      </c>
+      <c r="R25">
+        <v>0.6689714430909426</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
